--- a/Data Files/Fix Bug/GSD-147/Auto_GSD-147.xlsx
+++ b/Data Files/Fix Bug/GSD-147/Auto_GSD-147.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-147\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76C8E1C-CDFB-4663-B31D-B39116906430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371AB40B-1EA1-4B9B-BC90-949AB460AA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>issueNumber</t>
   </si>
@@ -175,52 +175,40 @@
     <t>0</t>
   </si>
   <si>
-    <t>th.fpt.tax@frasersproperty.com</t>
-  </si>
-  <si>
     <t>2023-11-30</t>
   </si>
   <si>
     <t>403560</t>
   </si>
   <si>
-    <t>0205531003381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บริษัท ไทยซัมซุง อิเลคโทรนิคส์ จำกัด  </t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>สวนอุตสาหกรรมศรีราชา</t>
-  </si>
-  <si>
-    <t>สุขาภิบาล 8</t>
-  </si>
-  <si>
-    <t>บึง</t>
-  </si>
-  <si>
-    <t>ศรีราชา</t>
-  </si>
-  <si>
     <t>ชลบุรี</t>
   </si>
   <si>
-    <t>20230</t>
-  </si>
-  <si>
-    <t>[2|2|6|553/4|หนองขาม|ศรีราชา|ชลบุรี|โกดังสินค้า|112194|403560|0|403560|1]</t>
-  </si>
-  <si>
     <t>2023-11-01</t>
   </si>
   <si>
     <t>as6690asdlk</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>0695149473434</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>[2|2|6|D1|D2|D3|D4|D5|D6|403560|0|403560|1]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -741,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -765,7 +753,7 @@
         <v>50</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>45</v>
@@ -780,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>50</v>
@@ -793,28 +781,21 @@
       </c>
       <c r="W2" s="5"/>
       <c r="AA2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>43</v>
@@ -826,7 +807,7 @@
         <v>50</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AO2" s="2">
         <v>404</v>
@@ -834,9 +815,7 @@
       <c r="AP2" s="2">
         <v>5</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="AS2" s="1"/>
     </row>
     <row r="3" spans="1:45" ht="11.25"/>
     <row r="4" spans="1:45" ht="11.25"/>

--- a/Data Files/Fix Bug/GSD-147/Auto_GSD-147.xlsx
+++ b/Data Files/Fix Bug/GSD-147/Auto_GSD-147.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-147\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371AB40B-1EA1-4B9B-BC90-949AB460AA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414C80D0-EC2D-4FF1-BB09-B9A5C726E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>[2|2|6|D1|D2|D3|D4|D5|D6|403560|0|403560|1]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Fix Bug/GSD-147/Auto_GSD-147.xlsx
+++ b/Data Files/Fix Bug/GSD-147/Auto_GSD-147.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-147\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414C80D0-EC2D-4FF1-BB09-B9A5C726E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B5B721-221A-4E92-84CF-6FFC8969DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="7305" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>[2|2|6|D1|D2|D3|D4|D5|D6|403560|0|403560|1]</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
